--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_25.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,366 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.12, 62.72)]</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -843,360 +856,326 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:05.780000', '0:00:12.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.096875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:01:32.746870', '0:01:36.589773')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:35.080113', '0:00:43.578616')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.54, 138.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.36, 122.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
